--- a/data/metadata.xlsx
+++ b/data/metadata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="1307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="1309">
   <si>
     <t>Organism Name</t>
   </si>
@@ -73,40 +73,40 @@
     <t>degenerated</t>
   </si>
   <si>
+    <t>4305-4312</t>
+  </si>
+  <si>
+    <t>RTE_Lunularia_cruciata_seq2</t>
+  </si>
+  <si>
+    <t>RTE_seq2</t>
+  </si>
+  <si>
+    <t>512-1303</t>
+  </si>
+  <si>
+    <t>2033-2797</t>
+  </si>
+  <si>
+    <t>3667-3683</t>
+  </si>
+  <si>
+    <t>RTE_Lunularia_cruciata_seq3</t>
+  </si>
+  <si>
+    <t>RTE_seq3</t>
+  </si>
+  <si>
     <t>4305-4313</t>
   </si>
   <si>
-    <t>RTE_Lunularia_cruciata_seq2</t>
-  </si>
-  <si>
-    <t>RTE_seq2</t>
-  </si>
-  <si>
-    <t>512-1303</t>
-  </si>
-  <si>
-    <t>2033-2797</t>
-  </si>
-  <si>
-    <t>3675-3685</t>
-  </si>
-  <si>
-    <t>RTE_Lunularia_cruciata_seq3</t>
-  </si>
-  <si>
-    <t>RTE_seq3</t>
-  </si>
-  <si>
-    <t>4305-4314</t>
-  </si>
-  <si>
     <t>RTE_Lunularia_cruciata_seq4</t>
   </si>
   <si>
     <t>RTE_seq4</t>
   </si>
   <si>
-    <t>4163-4172</t>
+    <t>4163-4171</t>
   </si>
   <si>
     <t>RTE_Lunularia_cruciata_seq5</t>
@@ -130,7 +130,7 @@
     <t>1818-2582</t>
   </si>
   <si>
-    <t>4235-4246</t>
+    <t>4235-4245</t>
   </si>
   <si>
     <t>RTE_Marchantia_polymorpha_seq2</t>
@@ -142,22 +142,22 @@
     <t>2077-2841</t>
   </si>
   <si>
+    <t>4273-4286</t>
+  </si>
+  <si>
+    <t>RTE_Marchantia_polymorpha_seq3</t>
+  </si>
+  <si>
     <t>4276-4287</t>
   </si>
   <si>
-    <t>RTE_Marchantia_polymorpha_seq3</t>
-  </si>
-  <si>
-    <t>4276-4288</t>
-  </si>
-  <si>
     <t>RTE_Marchantia_polymorpha_seq4</t>
   </si>
   <si>
     <t>543-992</t>
   </si>
   <si>
-    <t>4287-4296</t>
+    <t>4287-4295</t>
   </si>
   <si>
     <t>Ricciocarpus natans (L.) Corda</t>
@@ -178,7 +178,7 @@
     <t>3258-4046</t>
   </si>
   <si>
-    <t>4907-4917</t>
+    <t>4905-4916</t>
   </si>
   <si>
     <t>L1_Ricciocarpos_natans_seq2</t>
@@ -193,7 +193,7 @@
     <t>2058-2852</t>
   </si>
   <si>
-    <t>3971-3988</t>
+    <t>3971-3985</t>
   </si>
   <si>
     <t>Sphagnum fallax (H.Klinggr.) H.Klinggr</t>
@@ -214,7 +214,7 @@
     <t>6033-6329</t>
   </si>
   <si>
-    <t>7482-7499</t>
+    <t>7482-7498</t>
   </si>
   <si>
     <t>L1_Sphagnum_fallax_seq2</t>
@@ -232,7 +232,7 @@
     <t>6155-6334</t>
   </si>
   <si>
-    <t>7311-7320</t>
+    <t>7311-7319</t>
   </si>
   <si>
     <t>L1_Sphagnum_fallax_seq3</t>
@@ -265,7 +265,7 @@
     <t>2359-3147</t>
   </si>
   <si>
-    <t>4227-4239</t>
+    <t>4227-4238</t>
   </si>
   <si>
     <t>RTE_Sphagnum_fallax_seq2</t>
@@ -277,7 +277,7 @@
     <t>2064-2849</t>
   </si>
   <si>
-    <t>3984-3997</t>
+    <t>3984-3996</t>
   </si>
   <si>
     <t>Ceratodon purpureus (Hedw.) Brid.</t>
@@ -298,7 +298,7 @@
     <t>6015-6317</t>
   </si>
   <si>
-    <t>6821-6838</t>
+    <t>6821-6837</t>
   </si>
   <si>
     <t>L1_Ceratodon_purpureus_seq2</t>
@@ -313,7 +313,7 @@
     <t>4282-4569</t>
   </si>
   <si>
-    <t>4910-4921</t>
+    <t>4910-4920</t>
   </si>
   <si>
     <t>L1_Ceratodon_purpureus_seq3</t>
@@ -328,7 +328,7 @@
     <t>3376-4167</t>
   </si>
   <si>
-    <t>4832-4844</t>
+    <t>4832-4843</t>
   </si>
   <si>
     <t>L1_Ceratodon_purpureus_seq4</t>
@@ -349,7 +349,7 @@
     <t>5275-5466</t>
   </si>
   <si>
-    <t>6081-6098</t>
+    <t>6081-6097</t>
   </si>
   <si>
     <t>L1_Ceratodon_purpureus_seq5</t>
@@ -406,7 +406,7 @@
     <t>6085-6351</t>
   </si>
   <si>
-    <t>6740-6748</t>
+    <t>6740-6747</t>
   </si>
   <si>
     <t>L1_Thuidium_tamariscinum_seq3</t>
@@ -442,7 +442,7 @@
     <t>6299-6481</t>
   </si>
   <si>
-    <t>7019-7024</t>
+    <t>7019-7023</t>
   </si>
   <si>
     <t>Antitrichia curtipendula (Hedw.) Brid.</t>
@@ -463,7 +463,7 @@
     <t>6135-6299</t>
   </si>
   <si>
-    <t>7747-7768</t>
+    <t>7747-7765</t>
   </si>
   <si>
     <t>L1_Antitrichia_curtipendula_seq2</t>
@@ -493,7 +493,7 @@
     <t>3891-4112</t>
   </si>
   <si>
-    <t>5353-5368</t>
+    <t>5353-5365</t>
   </si>
   <si>
     <t>L1_Antitrichia_curtipendula_seq4</t>
@@ -511,7 +511,7 @@
     <t>6225-6425</t>
   </si>
   <si>
-    <t>8022-8036</t>
+    <t>8022-8035</t>
   </si>
   <si>
     <t>L1_Antitrichia_curtipendula_seq5</t>
@@ -526,7 +526,7 @@
     <t>3778-3945</t>
   </si>
   <si>
-    <t>5660-5668</t>
+    <t>5660-5667</t>
   </si>
   <si>
     <t>Straminergon stramineum (Dicks. ex Brid.)</t>
@@ -544,7 +544,7 @@
     <t>3523-4326</t>
   </si>
   <si>
-    <t>4600-4610</t>
+    <t>4600-4608</t>
   </si>
   <si>
     <t>L1_Straminergon_stramineum_seq2</t>
@@ -559,7 +559,7 @@
     <t>6298-6477</t>
   </si>
   <si>
-    <t>6694-6704</t>
+    <t>6694-6703</t>
   </si>
   <si>
     <t>L1_Straminergon_stramineum_seq3</t>
@@ -574,7 +574,7 @@
     <t>3772-4455</t>
   </si>
   <si>
-    <t>6682-6708</t>
+    <t>6682-6707</t>
   </si>
   <si>
     <t>L1_Straminergon_stramineum_seq4</t>
@@ -589,7 +589,7 @@
     <t>3550-4350</t>
   </si>
   <si>
-    <t>5021-5035</t>
+    <t>5021-5034</t>
   </si>
   <si>
     <t>Pseudisothecium myosuroides (Brid.) Grout</t>
@@ -607,7 +607,7 @@
     <t>4461-5201</t>
   </si>
   <si>
-    <t>6022-6028</t>
+    <t>6022-6027</t>
   </si>
   <si>
     <t>L1_Isothecium_myosuroides_seq2</t>
@@ -625,7 +625,7 @@
     <t>6229-6414</t>
   </si>
   <si>
-    <t>6933-6960</t>
+    <t>6933-6958</t>
   </si>
   <si>
     <t>L1_Isothecium_myosuroides_seq3</t>
@@ -640,7 +640,7 @@
     <t>4341-5081</t>
   </si>
   <si>
-    <t>5902-5912</t>
+    <t>5902-5909</t>
   </si>
   <si>
     <t>L1_Isothecium_myosuroides_seq4</t>
@@ -658,7 +658,7 @@
     <t>6220-6396</t>
   </si>
   <si>
-    <t>6974-6980</t>
+    <t>6974-6979</t>
   </si>
   <si>
     <t>L1_Isothecium_myosuroides_seq5</t>
@@ -694,7 +694,7 @@
     <t>3145-3987</t>
   </si>
   <si>
-    <t>5255-5264</t>
+    <t>5255-5263</t>
   </si>
   <si>
     <t>L1_Adiantum_capillus_veneris_seq2</t>
@@ -709,7 +709,7 @@
     <t>2851-3693</t>
   </si>
   <si>
-    <t>4544-4552</t>
+    <t>4544-4551</t>
   </si>
   <si>
     <t>L1_Adiantum_capillus_veneris_seq3</t>
@@ -724,7 +724,7 @@
     <t>3016-3807</t>
   </si>
   <si>
-    <t>5770-5778</t>
+    <t>5770-5777</t>
   </si>
   <si>
     <t>L1_Adiantum_capillus_veneris_seq4</t>
@@ -739,7 +739,7 @@
     <t>3736-3960</t>
   </si>
   <si>
-    <t>4388-4404</t>
+    <t>4388-4403</t>
   </si>
   <si>
     <t>Ceratopteris richardii Brongn.</t>
@@ -757,7 +757,7 @@
     <t>3456-3680</t>
   </si>
   <si>
-    <t>4131-4144</t>
+    <t>4131-4141</t>
   </si>
   <si>
     <t>L1_Ceratopteris_richardii_seq2</t>
@@ -796,7 +796,7 @@
     <t>5634-5768</t>
   </si>
   <si>
-    <t>6146-6156</t>
+    <t>6146-6155</t>
   </si>
   <si>
     <t>L1_Ceratopteris_richardii_seq4</t>
@@ -823,7 +823,7 @@
     <t>5333-5542</t>
   </si>
   <si>
-    <t>6021-6036</t>
+    <t>6021-6033</t>
   </si>
   <si>
     <t>Taxus chinensis Roxb.</t>
@@ -847,7 +847,7 @@
     <t>5526-5888</t>
   </si>
   <si>
-    <t>6128-6136</t>
+    <t>6128-6135</t>
   </si>
   <si>
     <t>L1_Taxus_chinensis_seq2</t>
@@ -868,7 +868,7 @@
     <t>5330-5692</t>
   </si>
   <si>
-    <t>6153-6164</t>
+    <t>6153-6163</t>
   </si>
   <si>
     <t>L1_Taxus_chinensis_seq3</t>
@@ -913,7 +913,7 @@
     <t>5325-5693</t>
   </si>
   <si>
-    <t>5888-5900</t>
+    <t>5888-5898</t>
   </si>
   <si>
     <t>L1_Sequoiadendron_giganteum_seq2</t>
@@ -955,7 +955,7 @@
     <t>5451-5831</t>
   </si>
   <si>
-    <t>6148-6156</t>
+    <t>6148-6154</t>
   </si>
   <si>
     <t>Cupressus sempervirens L.</t>
@@ -976,7 +976,7 @@
     <t>5328-5693</t>
   </si>
   <si>
-    <t>6202-6212</t>
+    <t>6202-6210</t>
   </si>
   <si>
     <t>L1_Cupressus_sempervirens_seq2</t>
@@ -997,7 +997,7 @@
     <t>5268-5633</t>
   </si>
   <si>
-    <t>6114-6124</t>
+    <t>6114-6122</t>
   </si>
   <si>
     <t>L1_Cupressus_sempervirens_seq3</t>
@@ -1039,7 +1039,7 @@
     <t>5316-5684</t>
   </si>
   <si>
-    <t>6028-6032</t>
+    <t>6028-6029</t>
   </si>
   <si>
     <t>Cryptomeria japonica (Thunb. ex L.) D.Don</t>
@@ -1048,16 +1048,16 @@
     <t>L1_Cryptomeria_japonica_seq1</t>
   </si>
   <si>
-    <t>446-880</t>
-  </si>
-  <si>
-    <t>1764-2453</t>
-  </si>
-  <si>
-    <t>3232-4026</t>
-  </si>
-  <si>
-    <t>4807-5055</t>
+    <t>326-760</t>
+  </si>
+  <si>
+    <t>1644-2333</t>
+  </si>
+  <si>
+    <t>3112-3906</t>
+  </si>
+  <si>
+    <t>4687-4935</t>
   </si>
   <si>
     <t>5143-5158</t>
@@ -1123,7 +1123,7 @@
     <t>4662-5024</t>
   </si>
   <si>
-    <t>5376-5384</t>
+    <t>5376-5382</t>
   </si>
   <si>
     <t>Vitis vinifera L.</t>
@@ -1141,7 +1141,7 @@
     <t>3463-3714</t>
   </si>
   <si>
-    <t>4138-4156</t>
+    <t>4138-4153</t>
   </si>
   <si>
     <t>L1_Vitis_vinifera_seq2</t>
@@ -1189,10 +1189,13 @@
     <t>2231-2821</t>
   </si>
   <si>
+    <t>3721-4521</t>
+  </si>
+  <si>
     <t>5319-5570</t>
   </si>
   <si>
-    <t>6006-6024</t>
+    <t>6006-6023</t>
   </si>
   <si>
     <t>L1_Vitis_vinifera_seq5</t>
@@ -1210,7 +1213,7 @@
     <t>5146-5376</t>
   </si>
   <si>
-    <t>5490-5500</t>
+    <t>5490-5499</t>
   </si>
   <si>
     <t>Amborella trichopoda Baill.</t>
@@ -1231,7 +1234,7 @@
     <t>4399-4758</t>
   </si>
   <si>
-    <t>5039-5060</t>
+    <t>5039-5058</t>
   </si>
   <si>
     <t>L1_Amborella_trichopoda_seq2</t>
@@ -1249,7 +1252,7 @@
     <t>4389-4463</t>
   </si>
   <si>
-    <t>5073-5084</t>
+    <t>5073-5082</t>
   </si>
   <si>
     <t>L1_Amborella_trichopoda_seq3</t>
@@ -1264,7 +1267,7 @@
     <t>4082-4276</t>
   </si>
   <si>
-    <t>6120-6148</t>
+    <t>6120-6147</t>
   </si>
   <si>
     <t>L1_Amborella_trichopoda_seq4</t>
@@ -1282,7 +1285,7 @@
     <t>3699-4058</t>
   </si>
   <si>
-    <t>4350-4361</t>
+    <t>4350-4360</t>
   </si>
   <si>
     <t>L1_Amborella_trichopoda_seq5</t>
@@ -1303,7 +1306,7 @@
     <t>6228-6587</t>
   </si>
   <si>
-    <t>6863-6874</t>
+    <t>6863-6873</t>
   </si>
   <si>
     <t>RTE_Amborella_trichopoda_seq1</t>
@@ -1327,7 +1330,7 @@
     <t>2055-2711</t>
   </si>
   <si>
-    <t>4398-4413</t>
+    <t>4398-4412</t>
   </si>
   <si>
     <t>RTE_Amborella_trichopoda_seq3</t>
@@ -1339,7 +1342,7 @@
     <t>2089-2775</t>
   </si>
   <si>
-    <t>3377-3394</t>
+    <t>3377-3386</t>
   </si>
   <si>
     <t>Nymphaea colorata Peter</t>
@@ -1381,7 +1384,7 @@
     <t>4632-4865</t>
   </si>
   <si>
-    <t>5347-5356</t>
+    <t>5347-5355</t>
   </si>
   <si>
     <t>L1_Nymphaea_colorata_seq3</t>
@@ -1399,7 +1402,7 @@
     <t>4564-4809</t>
   </si>
   <si>
-    <t>5213-5220</t>
+    <t>5213-5218</t>
   </si>
   <si>
     <t>L1_Nymphaea_colorata_seq4</t>
@@ -1417,7 +1420,7 @@
     <t>4712-4942</t>
   </si>
   <si>
-    <t>5046-5056</t>
+    <t>5046-5054</t>
   </si>
   <si>
     <t>Magnolia amoena W.C.Cheng</t>
@@ -1462,7 +1465,7 @@
     <t>5581-5823</t>
   </si>
   <si>
-    <t>6253-6268</t>
+    <t>6253-6266</t>
   </si>
   <si>
     <t>L1_Magnolia_amoena_seq3</t>
@@ -1480,7 +1483,7 @@
     <t>5560-5778</t>
   </si>
   <si>
-    <t>6312-6328</t>
+    <t>6312-6327</t>
   </si>
   <si>
     <t>L1_Magnolia_amoena_seq4</t>
@@ -1498,7 +1501,7 @@
     <t>5561-5818</t>
   </si>
   <si>
-    <t>6184-6204</t>
+    <t>6184-6201</t>
   </si>
   <si>
     <t>L1_Magnolia_amoena_seq5</t>
@@ -1519,7 +1522,7 @@
     <t>5687-5941</t>
   </si>
   <si>
-    <t>6325-6336</t>
+    <t>6325-6333</t>
   </si>
   <si>
     <t>Houttuynia cordata Thunb.</t>
@@ -1534,7 +1537,7 @@
     <t>1752-2510</t>
   </si>
   <si>
-    <t>3457-3472</t>
+    <t>3457-3469</t>
   </si>
   <si>
     <t>RTE_Hottuynia_cordata_seq2</t>
@@ -1591,7 +1594,7 @@
     <t>3428-3640</t>
   </si>
   <si>
-    <t>3874-3888</t>
+    <t>3874-3886</t>
   </si>
   <si>
     <t>L1_Acorus_gramineus_seq3</t>
@@ -1606,7 +1609,7 @@
     <t>3362-3613</t>
   </si>
   <si>
-    <t>4172-4184</t>
+    <t>4172-4181</t>
   </si>
   <si>
     <t>L1_Acorus_gramineus_seq4</t>
@@ -1621,7 +1624,7 @@
     <t>3306-3488</t>
   </si>
   <si>
-    <t>3946-3964</t>
+    <t>3946-3961</t>
   </si>
   <si>
     <t>Chionographis japonica (Willd.) Maxim.</t>
@@ -1648,7 +1651,7 @@
     <t>5295-5654</t>
   </si>
   <si>
-    <t>5809-5826</t>
+    <t>5809-5825</t>
   </si>
   <si>
     <t>L1_Chionographis_japonica_seq2</t>
@@ -1672,7 +1675,7 @@
     <t>5375-5734</t>
   </si>
   <si>
-    <t>5888-5904</t>
+    <t>5888-5903</t>
   </si>
   <si>
     <t>L1_Chionographis_japonica_seq3</t>
@@ -1687,7 +1690,7 @@
     <t>1675-2358</t>
   </si>
   <si>
-    <t>5810-5828</t>
+    <t>5810-5827</t>
   </si>
   <si>
     <t>Dendrobium nobile Lindl.</t>
@@ -1705,7 +1708,7 @@
     <t>3245-3265</t>
   </si>
   <si>
-    <t>3657-3668</t>
+    <t>3657-3666</t>
   </si>
   <si>
     <t>RTE_Dendrobium_nobile_seq2</t>
@@ -1732,7 +1735,7 @@
     <t>3305-3325</t>
   </si>
   <si>
-    <t>3717-3728</t>
+    <t>3717-3726</t>
   </si>
   <si>
     <t>Phoenix dactylifera L.</t>
@@ -1753,7 +1756,7 @@
     <t>3778-4119</t>
   </si>
   <si>
-    <t>4277-4308</t>
+    <t>4277-4307</t>
   </si>
   <si>
     <t>L1_Phoenix_dactylifera_seq2</t>
@@ -1771,7 +1774,7 @@
     <t>3809-4171</t>
   </si>
   <si>
-    <t>4451-4464</t>
+    <t>4451-4462</t>
   </si>
   <si>
     <t>L1_Phoenix_dactylifera_seq3</t>
@@ -1789,7 +1792,7 @@
     <t>3898-4239</t>
   </si>
   <si>
-    <t>4399-4428</t>
+    <t>4399-4425</t>
   </si>
   <si>
     <t>L1_Phoenix_dactylifera_seq4</t>
@@ -1807,7 +1810,7 @@
     <t>3990-4340</t>
   </si>
   <si>
-    <t>4479-4544</t>
+    <t>4479-4541</t>
   </si>
   <si>
     <t>Aechmea fasciata (Lindl.) Baker</t>
@@ -1825,7 +1828,7 @@
     <t>3343-3594</t>
   </si>
   <si>
-    <t>3964-3984</t>
+    <t>3964-3981</t>
   </si>
   <si>
     <t>L1_Aechmea_fasciata_seq2</t>
@@ -1840,7 +1843,7 @@
     <t>3395-3646</t>
   </si>
   <si>
-    <t>4001-4028</t>
+    <t>4001-4027</t>
   </si>
   <si>
     <t>L1_Aechmea_fasciata_seq3</t>
@@ -1852,7 +1855,7 @@
     <t>3274-3525</t>
   </si>
   <si>
-    <t>3950-3964</t>
+    <t>3950-3961</t>
   </si>
   <si>
     <t>L1_Aechmea_fasciata_seq4</t>
@@ -1864,7 +1867,7 @@
     <t>3396-3647</t>
   </si>
   <si>
-    <t>4082-4100</t>
+    <t>4082-4099</t>
   </si>
   <si>
     <t>Eleocharis geniculata L. Roem. &amp; Schult.</t>
@@ -1882,7 +1885,7 @@
     <t>3960-4136</t>
   </si>
   <si>
-    <t>4483-4493</t>
+    <t>4483-4492</t>
   </si>
   <si>
     <t>L1_Eleocharis_geniculata_seq2</t>
@@ -1897,7 +1900,7 @@
     <t>4140-4316</t>
   </si>
   <si>
-    <t>4663-4673</t>
+    <t>4663-4672</t>
   </si>
   <si>
     <t>L1_Eleocharis_geniculata_seq3</t>
@@ -1906,13 +1909,13 @@
     <t>567-1250</t>
   </si>
   <si>
-    <t>2179-2835</t>
+    <t>2042-2835</t>
   </si>
   <si>
     <t>3613-3846</t>
   </si>
   <si>
-    <t>4358-4369</t>
+    <t>4358-4368</t>
   </si>
   <si>
     <t>RTE_Eleocharis_geniculata_seq1</t>
@@ -1927,7 +1930,7 @@
     <t>3843-3860</t>
   </si>
   <si>
-    <t>4271-4279</t>
+    <t>4271-4278</t>
   </si>
   <si>
     <t>RTE_Eleocharis_geniculata_seq2</t>
@@ -1942,7 +1945,7 @@
     <t>3820-3831</t>
   </si>
   <si>
-    <t>5187-5202</t>
+    <t>5187-5201</t>
   </si>
   <si>
     <t>RTE_Eleocharis_geniculata_seq4</t>
@@ -1957,7 +1960,7 @@
     <t>3592-3612</t>
   </si>
   <si>
-    <t>3772-3788</t>
+    <t>3772-3787</t>
   </si>
   <si>
     <t>Rhynchospora breviuscula H.Pfeiff.</t>
@@ -1975,7 +1978,7 @@
     <t>3514-3531</t>
   </si>
   <si>
-    <t>4201-4223</t>
+    <t>4201-4222</t>
   </si>
   <si>
     <t>RTE_Rhynchospora_breviuscula_seq2</t>
@@ -1990,7 +1993,7 @@
     <t>3622-3636</t>
   </si>
   <si>
-    <t>3724-3736</t>
+    <t>3724-3735</t>
   </si>
   <si>
     <t>RTE_Rhynchospora_breviuscula_seq3</t>
@@ -2005,7 +2008,7 @@
     <t>3690-3701</t>
   </si>
   <si>
-    <t>3989-4002</t>
+    <t>3989-4001</t>
   </si>
   <si>
     <t>Rhynchospora rugosa (Vahl) Gale</t>
@@ -2032,7 +2035,7 @@
     <t>5280-5645</t>
   </si>
   <si>
-    <t>6046-6064</t>
+    <t>6046-6063</t>
   </si>
   <si>
     <t>L1_Rhynchospora_rugosa_seq2</t>
@@ -2062,7 +2065,7 @@
     <t>3658-3903</t>
   </si>
   <si>
-    <t>4346-4359</t>
+    <t>4346-4358</t>
   </si>
   <si>
     <t>L1_Rhynchospora_rugosa_seq4</t>
@@ -2071,7 +2074,7 @@
     <t>637-1323</t>
   </si>
   <si>
-    <t>4420-4436</t>
+    <t>4420-4433</t>
   </si>
   <si>
     <t>Juncus effusus L.</t>
@@ -2089,7 +2092,7 @@
     <t>3891-4142</t>
   </si>
   <si>
-    <t>5760-5770</t>
+    <t>5760-5769</t>
   </si>
   <si>
     <t>L1_Juncus_effusus_seq2</t>
@@ -2104,7 +2107,7 @@
     <t>3653-3904</t>
   </si>
   <si>
-    <t>4370-4381</t>
+    <t>4370-4380</t>
   </si>
   <si>
     <t>L1_Juncus_effusus_seq3</t>
@@ -2119,7 +2122,7 @@
     <t>4172-4420</t>
   </si>
   <si>
-    <t>5073-5082</t>
+    <t>5073-5081</t>
   </si>
   <si>
     <t>L1_Juncus_effusus_seq5</t>
@@ -2134,7 +2137,7 @@
     <t>4107-4328</t>
   </si>
   <si>
-    <t>6051-6062</t>
+    <t>6051-6061</t>
   </si>
   <si>
     <t>Luzula sylvatica (Huds.) Gaudin</t>
@@ -2152,7 +2155,7 @@
     <t>4014-4265</t>
   </si>
   <si>
-    <t>5478-5494</t>
+    <t>5478-5493</t>
   </si>
   <si>
     <t>L1_Luzula_sylvatica_seq2</t>
@@ -2167,7 +2170,7 @@
     <t>4799-5038</t>
   </si>
   <si>
-    <t>5957-5973</t>
+    <t>6557-6575</t>
   </si>
   <si>
     <t>L1_Luzula_sylvatica_seq3</t>
@@ -2200,7 +2203,7 @@
     <t>3621-3866</t>
   </si>
   <si>
-    <t>4424-4435</t>
+    <t>4424-4434</t>
   </si>
   <si>
     <t>L1_Oryza_sativa_seq2</t>
@@ -2215,7 +2218,7 @@
     <t>4183-4428</t>
   </si>
   <si>
-    <t>4964-4976</t>
+    <t>4964-4975</t>
   </si>
   <si>
     <t>L1_Oryza_sativa_seq3</t>
@@ -2227,7 +2230,10 @@
     <t>2547-3341</t>
   </si>
   <si>
-    <t>4874-4885</t>
+    <t>4123-4368</t>
+  </si>
+  <si>
+    <t>4874-4884</t>
   </si>
   <si>
     <t>Aegilops umbellulata Zhuk.</t>
@@ -2245,7 +2251,7 @@
     <t>3658-3810</t>
   </si>
   <si>
-    <t>4692-4700</t>
+    <t>4692-4697</t>
   </si>
   <si>
     <t>L1_Aegilops_umbellulata_seq2</t>
@@ -2260,7 +2266,7 @@
     <t>3304-3549</t>
   </si>
   <si>
-    <t>4114-4124</t>
+    <t>4114-4122</t>
   </si>
   <si>
     <t>L1_Aegilops_umbellulata_seq3</t>
@@ -2284,7 +2290,7 @@
     <t>3471-3488</t>
   </si>
   <si>
-    <t>4326-4337</t>
+    <t>4326-4336</t>
   </si>
   <si>
     <t>RTE_Triticum_turgidum_seq2</t>
@@ -2299,7 +2305,7 @@
     <t>3074-3091</t>
   </si>
   <si>
-    <t>3242-3256</t>
+    <t>3242-3255</t>
   </si>
   <si>
     <t>RTE_Triticum_turgidum_seq3</t>
@@ -2314,7 +2320,7 @@
     <t>3314-3337</t>
   </si>
   <si>
-    <t>3812-3821</t>
+    <t>3812-3820</t>
   </si>
   <si>
     <t>Zea mays L.</t>
@@ -2341,7 +2347,7 @@
     <t>5882-6238</t>
   </si>
   <si>
-    <t>6996-7112</t>
+    <t>7097-7112</t>
   </si>
   <si>
     <t>L1_Zea_mays_seq2</t>
@@ -2356,7 +2362,7 @@
     <t>3337-3495</t>
   </si>
   <si>
-    <t>4933-4944</t>
+    <t>4933-4943</t>
   </si>
   <si>
     <t>L1_Zea_mays_seq3</t>
@@ -2371,13 +2377,13 @@
     <t>3291-3542</t>
   </si>
   <si>
-    <t>4221-4236</t>
+    <t>4221-4233</t>
   </si>
   <si>
     <t>L1_Zea_mays_seq4</t>
   </si>
   <si>
-    <t>4627-4640</t>
+    <t>4627-4638</t>
   </si>
   <si>
     <t>L1_Zea_mays_seq5</t>
@@ -2401,7 +2407,7 @@
     <t>5312-5677</t>
   </si>
   <si>
-    <t>5810-5820</t>
+    <t>5810-5817</t>
   </si>
   <si>
     <t>Sorghum bicolor (L.) Moench</t>
@@ -2419,7 +2425,7 @@
     <t>3770-4012</t>
   </si>
   <si>
-    <t>5374-5385</t>
+    <t>5374-5384</t>
   </si>
   <si>
     <t>L1_Sorghum_bicolor_seq2</t>
@@ -2449,7 +2455,7 @@
     <t>3582-3815</t>
   </si>
   <si>
-    <t>4307-4318</t>
+    <t>4307-4317</t>
   </si>
   <si>
     <t>L1_Sorghum_bicolor_seq4</t>
@@ -2464,7 +2470,7 @@
     <t>3642-3875</t>
   </si>
   <si>
-    <t>4367-4378</t>
+    <t>4367-4377</t>
   </si>
   <si>
     <t>Tetracentron sinense Oliv.</t>
@@ -2482,7 +2488,7 @@
     <t>3663-3914</t>
   </si>
   <si>
-    <t>4328-4340</t>
+    <t>4328-4339</t>
   </si>
   <si>
     <t>L1_Tetracentron_sinense_seq3</t>
@@ -2497,7 +2503,7 @@
     <t>3903-4154</t>
   </si>
   <si>
-    <t>4568-4580</t>
+    <t>4568-4579</t>
   </si>
   <si>
     <t>L1_Tetracentron_sinense_seq4</t>
@@ -2506,7 +2512,7 @@
     <t>3903-4133</t>
   </si>
   <si>
-    <t>4558-4567</t>
+    <t>4558-4566</t>
   </si>
   <si>
     <t>Rhodiola kirilowii (Regel) Maxim.</t>
@@ -2533,7 +2539,7 @@
     <t>5100-5462</t>
   </si>
   <si>
-    <t>5624-5636</t>
+    <t>5624-5634</t>
   </si>
   <si>
     <t>L1_Rhodiola_kirilowii_seq2</t>
@@ -2548,7 +2554,7 @@
     <t>5099-5461</t>
   </si>
   <si>
-    <t>5600-5608</t>
+    <t>5600-5605</t>
   </si>
   <si>
     <t>L1_Rhodiola_kirilowii_seq3</t>
@@ -2569,7 +2575,7 @@
     <t>5223-5588</t>
   </si>
   <si>
-    <t>5724-5736</t>
+    <t>5724-5733</t>
   </si>
   <si>
     <t>L1_Rhodiola_kirilowii_seq5</t>
@@ -2593,7 +2599,7 @@
     <t>5140-5505</t>
   </si>
   <si>
-    <t>5671-5680</t>
+    <t>5671-5679</t>
   </si>
   <si>
     <t>Oxalis stricta L.</t>
@@ -2611,7 +2617,7 @@
     <t>3601-3612</t>
   </si>
   <si>
-    <t>4458-4476</t>
+    <t>4458-4474</t>
   </si>
   <si>
     <t>RTE_Oxalis_stricta_seq2</t>
@@ -2623,7 +2629,7 @@
     <t>3587-3610</t>
   </si>
   <si>
-    <t>5065-5076</t>
+    <t>5063-5073</t>
   </si>
   <si>
     <t>RTE_Oxalis_stricta_seq3</t>
@@ -2638,7 +2644,7 @@
     <t>3647-3670</t>
   </si>
   <si>
-    <t>4676-4684</t>
+    <t>4676-4683</t>
   </si>
   <si>
     <t>RTE_Oxalis_stricta_seq4</t>
@@ -2650,7 +2656,7 @@
     <t>2053-2805</t>
   </si>
   <si>
-    <t>4459-4476</t>
+    <t>4459-4473</t>
   </si>
   <si>
     <t>Cannabis sativa L.</t>
@@ -2671,7 +2677,7 @@
     <t>5158-5319</t>
   </si>
   <si>
-    <t>5919-5928</t>
+    <t>5919-5925</t>
   </si>
   <si>
     <t>L1_Cannabis_sativa_seq2</t>
@@ -2695,7 +2701,7 @@
     <t>4861-5226</t>
   </si>
   <si>
-    <t>5341-5356</t>
+    <t>5341-5355</t>
   </si>
   <si>
     <t>L1_Cannabis_sativa_seq3</t>
@@ -2719,7 +2725,7 @@
     <t>4854-5219</t>
   </si>
   <si>
-    <t>5328-5348</t>
+    <t>5328-5347</t>
   </si>
   <si>
     <t>L1_Cannabis_sativa_seq4</t>
@@ -2809,7 +2815,7 @@
     <t>4657-4914</t>
   </si>
   <si>
-    <t>5267-5280</t>
+    <t>5267-5277</t>
   </si>
   <si>
     <t>L1_Acacia_confusa_seq4</t>
@@ -2833,7 +2839,7 @@
     <t>5503-5862</t>
   </si>
   <si>
-    <t>6330-6344</t>
+    <t>6330-6342</t>
   </si>
   <si>
     <t>Vigna unguiculata subsp. sesquipedalis L. Verdc.</t>
@@ -2851,7 +2857,7 @@
     <t>3506-3766</t>
   </si>
   <si>
-    <t>4653-4667</t>
+    <t>4653-4666</t>
   </si>
   <si>
     <t>L1_Vigna_unguiculata_seq3</t>
@@ -2866,7 +2872,7 @@
     <t>3455-3715</t>
   </si>
   <si>
-    <t>4472-4483</t>
+    <t>4472-4482</t>
   </si>
   <si>
     <t>L1_Vigna_unguiculata_seq4</t>
@@ -2887,7 +2893,7 @@
     <t>5613-5789</t>
   </si>
   <si>
-    <t>6382-6395</t>
+    <t>6382-6394</t>
   </si>
   <si>
     <t>Eucalyptus globulus Labill.</t>
@@ -2926,7 +2932,7 @@
     <t>4864-5097</t>
   </si>
   <si>
-    <t>5701-5720</t>
+    <t>5701-5718</t>
   </si>
   <si>
     <t>L1_Eucalyptus_globulus_seq4</t>
@@ -2962,7 +2968,7 @@
     <t>4924-5175</t>
   </si>
   <si>
-    <t>5780-5792</t>
+    <t>5780-5789</t>
   </si>
   <si>
     <t>Acer campestre L.</t>
@@ -2986,7 +2992,7 @@
     <t>5367-5729</t>
   </si>
   <si>
-    <t>5914-5936</t>
+    <t>5914-5934</t>
   </si>
   <si>
     <t>L1_Acer_campestre_seq3</t>
@@ -3007,7 +3013,7 @@
     <t>5384-5662</t>
   </si>
   <si>
-    <t>5848-5864</t>
+    <t>5848-5861</t>
   </si>
   <si>
     <t>L1_Acer_campestre_seq4</t>
@@ -3031,7 +3037,7 @@
     <t>5361-5723</t>
   </si>
   <si>
-    <t>6186-6200</t>
+    <t>6186-6197</t>
   </si>
   <si>
     <t>L1_Acer_campestre_seq5</t>
@@ -3055,7 +3061,7 @@
     <t>5278-5640</t>
   </si>
   <si>
-    <t>5808-5824</t>
+    <t>5808-5821</t>
   </si>
   <si>
     <t>L1_Acer_campestre_seq6</t>
@@ -3082,7 +3088,7 @@
     <t>5421-5783</t>
   </si>
   <si>
-    <t>5982-5992</t>
+    <t>5982-5989</t>
   </si>
   <si>
     <t>Arabidopsis thaliana (L.) Heynh.</t>
@@ -3109,7 +3115,7 @@
     <t>5340-5705</t>
   </si>
   <si>
-    <t>5806-5816</t>
+    <t>5806-5815</t>
   </si>
   <si>
     <t>L1_Arabidopsis_thaliana_seq2</t>
@@ -3133,7 +3139,7 @@
     <t>5546-5911</t>
   </si>
   <si>
-    <t>6463-6483</t>
+    <t>6463-6482</t>
   </si>
   <si>
     <t>L1_Arabidopsis_thaliana_seq3</t>
@@ -3151,7 +3157,7 @@
     <t>4440-4805</t>
   </si>
   <si>
-    <t>4908-4919</t>
+    <t>4908-4918</t>
   </si>
   <si>
     <t>L1_Arabidopsis_thaliana_seq4</t>
@@ -3175,7 +3181,7 @@
     <t>5426-5785</t>
   </si>
   <si>
-    <t>5894-5906</t>
+    <t>5894-5905</t>
   </si>
   <si>
     <t>Gossypium hirsutum L.</t>
@@ -3199,7 +3205,7 @@
     <t>5114-5479</t>
   </si>
   <si>
-    <t>5955-5969</t>
+    <t>5955-5968</t>
   </si>
   <si>
     <t>L1_Gossypium_hirsutum_seq3</t>
@@ -3220,7 +3226,7 @@
     <t>5550-5909</t>
   </si>
   <si>
-    <t>7219-7235</t>
+    <t>7219-7234</t>
   </si>
   <si>
     <t>L1_Gossypium_hirsutum_seq4</t>
@@ -3244,7 +3250,7 @@
     <t>5352-5711</t>
   </si>
   <si>
-    <t>5834-5848</t>
+    <t>5834-5847</t>
   </si>
   <si>
     <t>Senecio sylvaticus L.</t>
@@ -3253,37 +3259,37 @@
     <t>L1_Senecio_sylvaticus_seq2</t>
   </si>
   <si>
-    <t>309-755</t>
-  </si>
-  <si>
-    <t>1336-2031</t>
-  </si>
-  <si>
-    <t>2821-3621</t>
-  </si>
-  <si>
-    <t>4398-4655</t>
-  </si>
-  <si>
-    <t>5195-5211</t>
+    <t>443-895</t>
+  </si>
+  <si>
+    <t>1476-2114</t>
+  </si>
+  <si>
+    <t>2898-3698</t>
+  </si>
+  <si>
+    <t>4476-4730</t>
+  </si>
+  <si>
+    <t>5228-5238</t>
   </si>
   <si>
     <t>L1_Senecio_sylvaticus_seq3</t>
   </si>
   <si>
-    <t>443-895</t>
-  </si>
-  <si>
-    <t>1476-2114</t>
-  </si>
-  <si>
-    <t>2898-3698</t>
-  </si>
-  <si>
-    <t>4476-4730</t>
-  </si>
-  <si>
-    <t>5228-5239</t>
+    <t>489-935</t>
+  </si>
+  <si>
+    <t>1516-2211</t>
+  </si>
+  <si>
+    <t>3001-3801</t>
+  </si>
+  <si>
+    <t>4579-4836</t>
+  </si>
+  <si>
+    <t>5377-5389</t>
   </si>
   <si>
     <t>L1_Senecio_sylvaticus_seq4</t>
@@ -3298,7 +3304,7 @@
     <t>4448-4705</t>
   </si>
   <si>
-    <t>5246-5256</t>
+    <t>5246-5254</t>
   </si>
   <si>
     <t>Helianthus annuus L.</t>
@@ -3319,7 +3325,7 @@
     <t>4548-4814</t>
   </si>
   <si>
-    <t>5495-5509</t>
+    <t>5495-5508</t>
   </si>
   <si>
     <t>L1_Helianthus_annuus_seq3</t>
@@ -3340,7 +3346,7 @@
     <t>4710-4895</t>
   </si>
   <si>
-    <t>5520-5546</t>
+    <t>5520-5545</t>
   </si>
   <si>
     <t>L1_Helianthus_annuus_seq4</t>
@@ -3355,7 +3361,7 @@
     <t>5118-5357</t>
   </si>
   <si>
-    <t>5793-5802</t>
+    <t>5793-5801</t>
   </si>
   <si>
     <t>L1_Helianthus_annuus_seq6</t>
@@ -3370,7 +3376,7 @@
     <t>3015-3764</t>
   </si>
   <si>
-    <t>4488-4495</t>
+    <t>4488-4494</t>
   </si>
   <si>
     <t>RTE_Helianthus_annuus_seq2</t>
@@ -3382,7 +3388,7 @@
     <t>1812-2564</t>
   </si>
   <si>
-    <t>3049-3058</t>
+    <t>3049-3057</t>
   </si>
   <si>
     <t>Mikania micrantha Kunth</t>
@@ -3394,7 +3400,7 @@
     <t>2055-2801</t>
   </si>
   <si>
-    <t>3627-3639</t>
+    <t>3627-3638</t>
   </si>
   <si>
     <t>RTE_Mikania_micrantha_seq2</t>
@@ -3406,13 +3412,13 @@
     <t>1924-2670</t>
   </si>
   <si>
-    <t>3488-3502</t>
+    <t>3488-3501</t>
   </si>
   <si>
     <t>RTE_Mikania_micrantha_seq3</t>
   </si>
   <si>
-    <t>3764-3784</t>
+    <t>3764-3782</t>
   </si>
   <si>
     <t>RTE_Mikania_micrantha_seq4</t>
@@ -3424,7 +3430,7 @@
     <t>2155-2910</t>
   </si>
   <si>
-    <t>4052-4070</t>
+    <t>4052-4068</t>
   </si>
   <si>
     <t>RTE_Mikania_micrantha_seq5</t>
@@ -3436,7 +3442,7 @@
     <t>2175-2921</t>
   </si>
   <si>
-    <t>3725-3745</t>
+    <t>3725-3744</t>
   </si>
   <si>
     <t>Daucus carota L.</t>
@@ -3463,7 +3469,7 @@
     <t>4804-5169</t>
   </si>
   <si>
-    <t>5273-5292</t>
+    <t>5273-5289</t>
   </si>
   <si>
     <t>L1_Daucus_carota_seq2</t>
@@ -3487,7 +3493,7 @@
     <t>4774-5136</t>
   </si>
   <si>
-    <t>5519-5529</t>
+    <t>5519-5528</t>
   </si>
   <si>
     <t>L1_Daucus_carota_seq3</t>
@@ -3511,7 +3517,7 @@
     <t>5012-5377</t>
   </si>
   <si>
-    <t>5483-5499</t>
+    <t>5483-5498</t>
   </si>
   <si>
     <t>Aralia elata (Miq.) Seem.</t>
@@ -3535,7 +3541,7 @@
     <t>5577-5903</t>
   </si>
   <si>
-    <t>6642-6656</t>
+    <t>6642-6654</t>
   </si>
   <si>
     <t>L1_Aralia_elata_seq2</t>
@@ -3571,7 +3577,7 @@
     <t>4173-4418</t>
   </si>
   <si>
-    <t>4848-5860</t>
+    <t>4848-4860</t>
   </si>
   <si>
     <t>L1_Aralia_elata_seq4</t>
@@ -3589,7 +3595,7 @@
     <t>4402-4644</t>
   </si>
   <si>
-    <t>5643-5660</t>
+    <t>5643-5657</t>
   </si>
   <si>
     <t>Coffea canephora Pierre ex A.Froehner</t>
@@ -3631,7 +3637,7 @@
     <t>3609-3971</t>
   </si>
   <si>
-    <t>4251-4268</t>
+    <t>4251-4267</t>
   </si>
   <si>
     <t>L1_Coffea_canephora_seq4</t>
@@ -3649,7 +3655,7 @@
     <t>3934-4218</t>
   </si>
   <si>
-    <t>4416-4426</t>
+    <t>4416-4425</t>
   </si>
   <si>
     <t>L1_Coffea_canephora_seq5</t>
@@ -3715,7 +3721,7 @@
     <t>5736-6095</t>
   </si>
   <si>
-    <t>7315-7332</t>
+    <t>7315-7331</t>
   </si>
   <si>
     <t>L1_Jacaranda_mimosifolia_seq2</t>
@@ -3736,7 +3742,7 @@
     <t>5256-5615</t>
   </si>
   <si>
-    <t>7158-7184</t>
+    <t>7158-7183</t>
   </si>
   <si>
     <t>L1_Jacaranda_mimosifolia_seq3</t>
@@ -3778,7 +3784,7 @@
     <t>5431-5790</t>
   </si>
   <si>
-    <t>6054-6072</t>
+    <t>6054-6071</t>
   </si>
   <si>
     <t>Solanum tuberosum L.</t>
@@ -3799,13 +3805,13 @@
     <t>3855-4100</t>
   </si>
   <si>
-    <t>4511-4525</t>
+    <t>4511-4524</t>
   </si>
   <si>
     <t>L1_Solanum_tuberosum_seq2</t>
   </si>
   <si>
-    <t>4496-4509</t>
+    <t>4496-4508</t>
   </si>
   <si>
     <t>L1_Solanum_tuberosum_seq3</t>
@@ -3820,7 +3826,7 @@
     <t>3864-4106</t>
   </si>
   <si>
-    <t>4419-4430</t>
+    <t>4419-4429</t>
   </si>
   <si>
     <t>RTE_Solanum_tuberosum_seq1</t>
@@ -3865,7 +3871,7 @@
     <t>3472-3492</t>
   </si>
   <si>
-    <t>3727-3736</t>
+    <t>3727-3735</t>
   </si>
   <si>
     <t>Capsicum baccatum L.</t>
@@ -3889,7 +3895,7 @@
     <t>7092-7454</t>
   </si>
   <si>
-    <t>7687-7706</t>
+    <t>7687-7705</t>
   </si>
   <si>
     <t>RTE_Capsicum_baccatum_seq1</t>
@@ -3904,7 +3910,7 @@
     <t>3746-3760</t>
   </si>
   <si>
-    <t>4157-4167</t>
+    <t>4157-4166</t>
   </si>
   <si>
     <t>RTE_Capsicum_baccatum_seq2</t>
@@ -3919,7 +3925,7 @@
     <t>3723-3734</t>
   </si>
   <si>
-    <t>3826-3833</t>
+    <t>3826-3832</t>
   </si>
   <si>
     <t>RTE_Capsicum_baccatum_seq3</t>
@@ -3934,7 +3940,7 @@
     <t>3681-3698</t>
   </si>
   <si>
-    <t>4069-4078</t>
+    <t>4069-4077</t>
   </si>
 </sst>
 </file>
@@ -3942,12 +3948,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3956,8 +3962,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3978,31 +4000,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Aptos Display"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4016,9 +4015,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Display"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4039,16 +4052,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Aptos Narrow"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4056,6 +4070,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4069,31 +4091,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4108,7 +4107,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4120,13 +4143,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4144,19 +4239,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4168,109 +4275,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4282,13 +4287,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4299,6 +4298,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4313,26 +4330,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4367,11 +4364,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4388,89 +4391,85 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4818,7 +4817,7 @@
   <dimension ref="A1:M221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4875,7 +4874,7 @@
         <v>15</v>
       </c>
       <c r="D2">
-        <v>4313</v>
+        <v>4312</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
@@ -4901,7 +4900,7 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>3685</v>
+        <v>3683</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
@@ -4927,7 +4926,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>4314</v>
+        <v>4313</v>
       </c>
       <c r="H4" t="s">
         <v>16</v>
@@ -4953,7 +4952,7 @@
         <v>29</v>
       </c>
       <c r="D5">
-        <v>4172</v>
+        <v>4171</v>
       </c>
       <c r="H5" t="s">
         <v>16</v>
@@ -5005,7 +5004,7 @@
         <v>15</v>
       </c>
       <c r="D7">
-        <v>4246</v>
+        <v>4245</v>
       </c>
       <c r="H7" t="s">
         <v>36</v>
@@ -5031,7 +5030,7 @@
         <v>21</v>
       </c>
       <c r="D8">
-        <v>4287</v>
+        <v>4286</v>
       </c>
       <c r="H8" t="s">
         <v>40</v>
@@ -5057,7 +5056,7 @@
         <v>26</v>
       </c>
       <c r="D9">
-        <v>4288</v>
+        <v>4287</v>
       </c>
       <c r="H9" t="s">
         <v>40</v>
@@ -5083,7 +5082,7 @@
         <v>29</v>
       </c>
       <c r="D10">
-        <v>4296</v>
+        <v>4295</v>
       </c>
       <c r="H10" t="s">
         <v>46</v>
@@ -5109,7 +5108,7 @@
         <v>50</v>
       </c>
       <c r="D11">
-        <v>4917</v>
+        <v>4916</v>
       </c>
       <c r="F11" t="s">
         <v>51</v>
@@ -5135,7 +5134,7 @@
         <v>56</v>
       </c>
       <c r="D12">
-        <v>3988</v>
+        <v>3985</v>
       </c>
       <c r="H12" t="s">
         <v>57</v>
@@ -5158,7 +5157,7 @@
         <v>50</v>
       </c>
       <c r="D13">
-        <v>7499</v>
+        <v>7498</v>
       </c>
       <c r="F13" t="s">
         <v>62</v>
@@ -5187,7 +5186,7 @@
         <v>56</v>
       </c>
       <c r="D14">
-        <v>7320</v>
+        <v>7319</v>
       </c>
       <c r="F14" t="s">
         <v>68</v>
@@ -5245,7 +5244,7 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <v>4239</v>
+        <v>4238</v>
       </c>
       <c r="H16" t="s">
         <v>81</v>
@@ -5271,7 +5270,7 @@
         <v>21</v>
       </c>
       <c r="D17">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="H17" t="s">
         <v>85</v>
@@ -5297,7 +5296,7 @@
         <v>50</v>
       </c>
       <c r="D18">
-        <v>6838</v>
+        <v>6837</v>
       </c>
       <c r="F18" t="s">
         <v>90</v>
@@ -5326,7 +5325,7 @@
         <v>56</v>
       </c>
       <c r="D19">
-        <v>4921</v>
+        <v>4920</v>
       </c>
       <c r="H19" t="s">
         <v>96</v>
@@ -5352,7 +5351,7 @@
         <v>74</v>
       </c>
       <c r="D20">
-        <v>4844</v>
+        <v>4843</v>
       </c>
       <c r="F20" t="s">
         <v>101</v>
@@ -5378,7 +5377,7 @@
         <v>106</v>
       </c>
       <c r="D21">
-        <v>6098</v>
+        <v>6097</v>
       </c>
       <c r="F21" t="s">
         <v>107</v>
@@ -5462,7 +5461,7 @@
         <v>56</v>
       </c>
       <c r="D24">
-        <v>6748</v>
+        <v>6747</v>
       </c>
       <c r="F24" t="s">
         <v>126</v>
@@ -5520,7 +5519,7 @@
         <v>106</v>
       </c>
       <c r="D26">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="F26" t="s">
         <v>138</v>
@@ -5549,7 +5548,7 @@
         <v>50</v>
       </c>
       <c r="D27">
-        <v>7768</v>
+        <v>7765</v>
       </c>
       <c r="F27" t="s">
         <v>145</v>
@@ -5604,7 +5603,7 @@
         <v>74</v>
       </c>
       <c r="D29">
-        <v>5368</v>
+        <v>5365</v>
       </c>
       <c r="H29" t="s">
         <v>156</v>
@@ -5630,7 +5629,7 @@
         <v>106</v>
       </c>
       <c r="D30">
-        <v>8036</v>
+        <v>8035</v>
       </c>
       <c r="F30" t="s">
         <v>161</v>
@@ -5659,7 +5658,7 @@
         <v>113</v>
       </c>
       <c r="D31">
-        <v>5668</v>
+        <v>5667</v>
       </c>
       <c r="H31" t="s">
         <v>167</v>
@@ -5685,7 +5684,7 @@
         <v>50</v>
       </c>
       <c r="D32">
-        <v>4610</v>
+        <v>4608</v>
       </c>
       <c r="F32" t="s">
         <v>173</v>
@@ -5711,7 +5710,7 @@
         <v>56</v>
       </c>
       <c r="D33">
-        <v>6704</v>
+        <v>6703</v>
       </c>
       <c r="F33" t="s">
         <v>178</v>
@@ -5740,7 +5739,7 @@
         <v>74</v>
       </c>
       <c r="D34">
-        <v>6708</v>
+        <v>6707</v>
       </c>
       <c r="F34" t="s">
         <v>183</v>
@@ -5766,7 +5765,7 @@
         <v>106</v>
       </c>
       <c r="D35">
-        <v>5035</v>
+        <v>5034</v>
       </c>
       <c r="F35" t="s">
         <v>188</v>
@@ -5792,7 +5791,7 @@
         <v>50</v>
       </c>
       <c r="D36">
-        <v>6028</v>
+        <v>6027</v>
       </c>
       <c r="F36" t="s">
         <v>194</v>
@@ -5818,7 +5817,7 @@
         <v>56</v>
       </c>
       <c r="D37">
-        <v>6960</v>
+        <v>6958</v>
       </c>
       <c r="F37" t="s">
         <v>199</v>
@@ -5847,7 +5846,7 @@
         <v>74</v>
       </c>
       <c r="D38">
-        <v>5912</v>
+        <v>5909</v>
       </c>
       <c r="F38" t="s">
         <v>205</v>
@@ -5873,7 +5872,7 @@
         <v>106</v>
       </c>
       <c r="D39">
-        <v>6980</v>
+        <v>6979</v>
       </c>
       <c r="F39" t="s">
         <v>210</v>
@@ -5931,7 +5930,7 @@
         <v>50</v>
       </c>
       <c r="D41">
-        <v>5264</v>
+        <v>5263</v>
       </c>
       <c r="F41" t="s">
         <v>223</v>
@@ -5957,7 +5956,7 @@
         <v>56</v>
       </c>
       <c r="D42">
-        <v>4552</v>
+        <v>4551</v>
       </c>
       <c r="F42" t="s">
         <v>228</v>
@@ -5983,7 +5982,7 @@
         <v>74</v>
       </c>
       <c r="D43">
-        <v>5778</v>
+        <v>5777</v>
       </c>
       <c r="F43" t="s">
         <v>233</v>
@@ -6009,7 +6008,7 @@
         <v>106</v>
       </c>
       <c r="D44">
-        <v>4404</v>
+        <v>4403</v>
       </c>
       <c r="H44" t="s">
         <v>238</v>
@@ -6035,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="D45">
-        <v>4144</v>
+        <v>4141</v>
       </c>
       <c r="H45" t="s">
         <v>244</v>
@@ -6090,7 +6089,7 @@
         <v>74</v>
       </c>
       <c r="D47">
-        <v>6156</v>
+        <v>6155</v>
       </c>
       <c r="F47" t="s">
         <v>255</v>
@@ -6148,7 +6147,7 @@
         <v>113</v>
       </c>
       <c r="D49">
-        <v>6036</v>
+        <v>6033</v>
       </c>
       <c r="F49" t="s">
         <v>265</v>
@@ -6177,7 +6176,7 @@
         <v>50</v>
       </c>
       <c r="D50">
-        <v>6136</v>
+        <v>6135</v>
       </c>
       <c r="F50" t="s">
         <v>272</v>
@@ -6209,7 +6208,7 @@
         <v>56</v>
       </c>
       <c r="D51">
-        <v>6164</v>
+        <v>6163</v>
       </c>
       <c r="F51" t="s">
         <v>279</v>
@@ -6273,7 +6272,7 @@
         <v>50</v>
       </c>
       <c r="D53">
-        <v>5900</v>
+        <v>5898</v>
       </c>
       <c r="F53" t="s">
         <v>294</v>
@@ -6337,7 +6336,7 @@
         <v>74</v>
       </c>
       <c r="D55">
-        <v>6156</v>
+        <v>6154</v>
       </c>
       <c r="F55" t="s">
         <v>308</v>
@@ -6369,7 +6368,7 @@
         <v>50</v>
       </c>
       <c r="D56">
-        <v>6212</v>
+        <v>6210</v>
       </c>
       <c r="F56" t="s">
         <v>316</v>
@@ -6401,7 +6400,7 @@
         <v>56</v>
       </c>
       <c r="D57">
-        <v>6124</v>
+        <v>6122</v>
       </c>
       <c r="F57" t="s">
         <v>322</v>
@@ -6465,7 +6464,7 @@
         <v>106</v>
       </c>
       <c r="D59">
-        <v>6032</v>
+        <v>6029</v>
       </c>
       <c r="F59" t="s">
         <v>336</v>
@@ -6590,7 +6589,7 @@
         <v>106</v>
       </c>
       <c r="D63">
-        <v>5384</v>
+        <v>5382</v>
       </c>
       <c r="F63" t="s">
         <v>364</v>
@@ -6622,7 +6621,7 @@
         <v>50</v>
       </c>
       <c r="D64">
-        <v>4156</v>
+        <v>4153</v>
       </c>
       <c r="H64" t="s">
         <v>372</v>
@@ -6706,7 +6705,7 @@
         <v>106</v>
       </c>
       <c r="D67">
-        <v>6024</v>
+        <v>6023</v>
       </c>
       <c r="F67" t="s">
         <v>389</v>
@@ -6715,13 +6714,13 @@
         <v>390</v>
       </c>
       <c r="I67" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J67" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M67" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -6729,181 +6728,181 @@
         <v>370</v>
       </c>
       <c r="B68" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C68" t="s">
         <v>113</v>
       </c>
       <c r="D68">
-        <v>5500</v>
+        <v>5499</v>
       </c>
       <c r="F68" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H68" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I68" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J68" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M68" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B69" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C69" t="s">
         <v>50</v>
       </c>
       <c r="D69">
-        <v>5060</v>
+        <v>5058</v>
       </c>
       <c r="H69" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I69" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K69" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M69" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B70" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C70" t="s">
         <v>56</v>
       </c>
       <c r="D70">
-        <v>5084</v>
+        <v>5082</v>
       </c>
       <c r="H70" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I70" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J70" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K70" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M70" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B71" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C71" t="s">
         <v>74</v>
       </c>
       <c r="D71">
-        <v>6148</v>
+        <v>6147</v>
       </c>
       <c r="H71" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I71" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="J71" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M71" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B72" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C72" t="s">
         <v>106</v>
       </c>
       <c r="D72">
-        <v>4361</v>
+        <v>4360</v>
       </c>
       <c r="H72" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I72" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J72" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K72" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M72" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B73" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C73" t="s">
         <v>113</v>
       </c>
       <c r="D73">
-        <v>6874</v>
+        <v>6873</v>
       </c>
       <c r="F73" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H73" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I73" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="J73" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K73" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M73" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B74" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C74" t="s">
         <v>15</v>
@@ -6912,76 +6911,76 @@
         <v>2921</v>
       </c>
       <c r="H74" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I74" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L74" t="s">
         <v>18</v>
       </c>
       <c r="M74" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B75" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C75" t="s">
         <v>21</v>
       </c>
       <c r="D75">
-        <v>4413</v>
+        <v>4412</v>
       </c>
       <c r="H75" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I75" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L75" t="s">
         <v>18</v>
       </c>
       <c r="M75" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B76" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C76" t="s">
         <v>26</v>
       </c>
       <c r="D76">
-        <v>3394</v>
+        <v>3386</v>
       </c>
       <c r="H76" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I76" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L76" t="s">
         <v>18</v>
       </c>
       <c r="M76" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B77" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C77" t="s">
         <v>50</v>
@@ -6990,117 +6989,117 @@
         <v>5880</v>
       </c>
       <c r="F77" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H77" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I77" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J77" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K77" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M77" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B78" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C78" t="s">
         <v>56</v>
       </c>
       <c r="D78">
-        <v>5356</v>
+        <v>5355</v>
       </c>
       <c r="F78" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H78" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="I78" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="J78" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M78" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B79" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C79" t="s">
         <v>74</v>
       </c>
       <c r="D79">
-        <v>5220</v>
+        <v>5218</v>
       </c>
       <c r="F79" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H79" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I79" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="J79" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M79" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B80" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C80" t="s">
         <v>106</v>
       </c>
       <c r="D80">
-        <v>5056</v>
+        <v>5054</v>
       </c>
       <c r="F80" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H80" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I80" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="J80" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M80" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B81" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C81" t="s">
         <v>50</v>
@@ -7109,184 +7108,184 @@
         <v>6232</v>
       </c>
       <c r="E81" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F81" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H81" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I81" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J81" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M81" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B82" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C82" t="s">
         <v>56</v>
       </c>
       <c r="D82">
-        <v>6268</v>
+        <v>6266</v>
       </c>
       <c r="E82" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F82" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H82" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="I82" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J82" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M82" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B83" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C83" t="s">
         <v>74</v>
       </c>
       <c r="D83">
-        <v>6328</v>
+        <v>6327</v>
       </c>
       <c r="E83" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F83" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H83" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="I83" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J83" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M83" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B84" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C84" t="s">
         <v>106</v>
       </c>
       <c r="D84">
-        <v>6204</v>
+        <v>6201</v>
       </c>
       <c r="E84" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F84" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H84" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="I84" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J84" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M84" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B85" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C85" t="s">
         <v>113</v>
       </c>
       <c r="D85">
-        <v>6336</v>
+        <v>6333</v>
       </c>
       <c r="E85" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F85" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H85" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I85" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="J85" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M85" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B86" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C86" t="s">
         <v>15</v>
       </c>
       <c r="D86">
-        <v>3472</v>
+        <v>3469</v>
       </c>
       <c r="H86" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I86" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L86" t="s">
         <v>18</v>
       </c>
       <c r="M86" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B87" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C87" t="s">
         <v>21</v>
@@ -7295,24 +7294,24 @@
         <v>2988</v>
       </c>
       <c r="H87" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I87" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L87" t="s">
         <v>18</v>
       </c>
       <c r="M87" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B88" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C88" t="s">
         <v>26</v>
@@ -7321,24 +7320,24 @@
         <v>2380</v>
       </c>
       <c r="H88" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I88" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L88" t="s">
         <v>18</v>
       </c>
       <c r="M88" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B89" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C89" t="s">
         <v>50</v>
@@ -7347,233 +7346,233 @@
         <v>3932</v>
       </c>
       <c r="H89" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I89" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="J89" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M89" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B90" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C90" t="s">
         <v>56</v>
       </c>
       <c r="D90">
-        <v>3888</v>
+        <v>3886</v>
       </c>
       <c r="H90" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="I90" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="J90" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M90" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B91" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C91" t="s">
         <v>74</v>
       </c>
       <c r="D91">
-        <v>4184</v>
+        <v>4181</v>
       </c>
       <c r="H91" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I91" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J91" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M91" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B92" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C92" t="s">
         <v>106</v>
       </c>
       <c r="D92">
-        <v>3964</v>
+        <v>3961</v>
       </c>
       <c r="H92" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I92" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="J92" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M92" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B93" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C93" t="s">
         <v>50</v>
       </c>
       <c r="D93">
-        <v>5826</v>
+        <v>5825</v>
       </c>
       <c r="F93" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G93" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H93" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="I93" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="J93" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="K93" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M93" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B94" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C94" t="s">
         <v>56</v>
       </c>
       <c r="D94">
-        <v>5904</v>
+        <v>5903</v>
       </c>
       <c r="F94" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G94" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H94" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="I94" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="J94" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K94" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M94" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B95" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C95" t="s">
         <v>74</v>
       </c>
       <c r="D95">
-        <v>5828</v>
+        <v>5827</v>
       </c>
       <c r="F95" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G95" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H95" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="I95" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="J95" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="K95" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M95" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B96" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C96" t="s">
         <v>15</v>
       </c>
       <c r="D96">
-        <v>3668</v>
+        <v>3666</v>
       </c>
       <c r="H96" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="I96" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L96" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M96" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B97" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C97" t="s">
         <v>21</v>
@@ -7582,539 +7581,539 @@
         <v>3796</v>
       </c>
       <c r="H97" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="I97" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L97" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M97" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B98" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C98" t="s">
         <v>26</v>
       </c>
       <c r="D98">
-        <v>3728</v>
+        <v>3726</v>
       </c>
       <c r="H98" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="I98" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L98" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M98" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B99" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C99" t="s">
         <v>50</v>
       </c>
       <c r="D99">
-        <v>4308</v>
+        <v>4307</v>
       </c>
       <c r="H99" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="I99" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="J99" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="K99" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M99" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B100" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C100" t="s">
         <v>56</v>
       </c>
       <c r="D100">
-        <v>4464</v>
+        <v>4462</v>
       </c>
       <c r="H100" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I100" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J100" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="K100" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M100" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B101" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C101" t="s">
         <v>74</v>
       </c>
       <c r="D101">
-        <v>4428</v>
+        <v>4425</v>
       </c>
       <c r="H101" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="I101" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="J101" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="K101" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M101" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B102" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C102" t="s">
         <v>106</v>
       </c>
       <c r="D102">
-        <v>4544</v>
+        <v>4541</v>
       </c>
       <c r="H102" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="I102" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="J102" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="K102" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M102" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B103" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C103" t="s">
         <v>50</v>
       </c>
       <c r="D103">
-        <v>3984</v>
+        <v>3981</v>
       </c>
       <c r="H103" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="I103" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="J103" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M103" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B104" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C104" t="s">
         <v>56</v>
       </c>
       <c r="D104">
-        <v>4028</v>
+        <v>4027</v>
       </c>
       <c r="H104" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="I104" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="J104" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M104" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B105" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C105" t="s">
         <v>74</v>
       </c>
       <c r="D105">
-        <v>3964</v>
+        <v>3961</v>
       </c>
       <c r="H105" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="I105" t="s">
         <v>168</v>
       </c>
       <c r="J105" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="M105" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B106" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C106" t="s">
         <v>106</v>
       </c>
       <c r="D106">
-        <v>4100</v>
+        <v>4099</v>
       </c>
       <c r="H106" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="I106" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="J106" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M106" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B107" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C107" t="s">
         <v>50</v>
       </c>
       <c r="D107">
-        <v>4493</v>
+        <v>4492</v>
       </c>
       <c r="H107" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="I107" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="J107" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="M107" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B108" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C108" t="s">
         <v>56</v>
       </c>
       <c r="D108">
-        <v>4673</v>
+        <v>4672</v>
       </c>
       <c r="H108" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="I108" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="J108" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M108" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B109" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C109" t="s">
         <v>74</v>
       </c>
       <c r="D109">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="H109" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="I109" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="J109" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M109" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B110" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C110" t="s">
         <v>15</v>
       </c>
       <c r="D110">
-        <v>4279</v>
+        <v>4278</v>
       </c>
       <c r="H110" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="I110" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L110" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="M110" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B111" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C111" t="s">
         <v>21</v>
       </c>
       <c r="D111">
-        <v>5202</v>
+        <v>5201</v>
       </c>
       <c r="H111" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="I111" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="L111" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M111" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B112" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C112" t="s">
         <v>29</v>
       </c>
       <c r="D112">
-        <v>3788</v>
+        <v>3787</v>
       </c>
       <c r="H112" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="I112" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L112" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M112" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B113" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C113" t="s">
         <v>15</v>
       </c>
       <c r="D113">
-        <v>4223</v>
+        <v>4222</v>
       </c>
       <c r="H113" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="I113" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="L113" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="M113" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B114" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C114" t="s">
         <v>21</v>
       </c>
       <c r="D114">
-        <v>3736</v>
+        <v>3735</v>
       </c>
       <c r="H114" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I114" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L114" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="M114" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B115" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C115" t="s">
         <v>26</v>
       </c>
       <c r="D115">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="H115" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="I115" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="L115" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="M115" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B116" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C116" t="s">
         <v>50</v>
       </c>
       <c r="D116">
-        <v>6064</v>
+        <v>6063</v>
       </c>
       <c r="F116" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G116" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H116" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="I116" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="J116" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="K116" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="M116" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B117" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C117" t="s">
         <v>56</v>
@@ -8123,232 +8122,232 @@
         <v>4312</v>
       </c>
       <c r="H117" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="I117" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="J117" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="M117" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B118" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C118" t="s">
         <v>74</v>
       </c>
       <c r="D118">
-        <v>4359</v>
+        <v>4358</v>
       </c>
       <c r="H118" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="I118" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="J118" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M118" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B119" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C119" t="s">
         <v>106</v>
       </c>
       <c r="D119">
-        <v>4436</v>
+        <v>4433</v>
       </c>
       <c r="H119" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="I119" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="J119" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="M119" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B120" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C120" t="s">
         <v>50</v>
       </c>
       <c r="D120">
-        <v>5970</v>
+        <v>5769</v>
       </c>
       <c r="H120" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="I120" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="J120" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="M120" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B121" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C121" t="s">
         <v>56</v>
       </c>
       <c r="D121">
-        <v>4381</v>
+        <v>4380</v>
       </c>
       <c r="H121" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="I121" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="J121" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M121" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B122" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C122" t="s">
         <v>74</v>
       </c>
       <c r="D122">
-        <v>5082</v>
+        <v>5081</v>
       </c>
       <c r="H122" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="I122" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="J122" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="M122" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B123" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C123" t="s">
         <v>113</v>
       </c>
       <c r="D123">
-        <v>6062</v>
+        <v>6061</v>
       </c>
       <c r="H123" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="I123" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="J123" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M123" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B124" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C124" t="s">
         <v>50</v>
       </c>
       <c r="D124">
-        <v>5494</v>
+        <v>5493</v>
       </c>
       <c r="H124" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="I124" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="J124" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="M124" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B125" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C125" t="s">
         <v>56</v>
       </c>
       <c r="D125">
-        <v>5973</v>
+        <v>6575</v>
       </c>
       <c r="H125" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="I125" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="J125" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M125" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B126" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C126" t="s">
         <v>74</v>
@@ -8357,258 +8356,258 @@
         <v>5304</v>
       </c>
       <c r="H126" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="I126" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="J126" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="M126" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="127" spans="1:13">
       <c r="A127" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B127" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C127" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D127">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="H127" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="I127" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="J127" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M127" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B128" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C128" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D128">
-        <v>4976</v>
+        <v>4975</v>
       </c>
       <c r="H128" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="I128" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="J128" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="M128" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="129" spans="1:13">
       <c r="A129" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B129" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C129" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="D129">
-        <v>4885</v>
+        <v>4884</v>
       </c>
       <c r="H129" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="I129" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="J129" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="M129" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="130" spans="1:13">
       <c r="A130" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B130" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C130" t="s">
         <v>50</v>
       </c>
       <c r="D130">
-        <v>4700</v>
+        <v>4697</v>
       </c>
       <c r="H130" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="I130" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="J130" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M130" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="131" spans="1:13">
       <c r="A131" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B131" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C131" t="s">
         <v>56</v>
       </c>
       <c r="D131">
-        <v>4124</v>
+        <v>4122</v>
       </c>
       <c r="H131" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="I131" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="J131" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="M131" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="132" spans="1:13">
       <c r="A132" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B132" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C132" t="s">
         <v>74</v>
       </c>
       <c r="D132">
-        <v>4700</v>
+        <v>4697</v>
       </c>
       <c r="H132" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="I132" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="J132" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M132" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B133" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C133" t="s">
         <v>15</v>
       </c>
       <c r="D133">
-        <v>4337</v>
+        <v>4336</v>
       </c>
       <c r="H133" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="I133" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="L133" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="M133" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="134" spans="1:13">
       <c r="A134" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B134" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C134" t="s">
         <v>21</v>
       </c>
       <c r="D134">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="H134" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="I134" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="L134" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="M134" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="135" spans="1:13">
       <c r="A135" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B135" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C135" t="s">
         <v>26</v>
       </c>
       <c r="D135">
-        <v>3821</v>
+        <v>3820</v>
       </c>
       <c r="H135" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="I135" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="L135" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="M135" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="136" spans="1:13">
       <c r="A136" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B136" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C136" t="s">
         <v>50</v>
@@ -8617,172 +8616,172 @@
         <v>7112</v>
       </c>
       <c r="F136" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="G136" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="H136" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="I136" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="J136" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="K136" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="M136" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="137" spans="1:13">
       <c r="A137" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B137" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C137" t="s">
         <v>56</v>
       </c>
       <c r="D137">
-        <v>4944</v>
+        <v>4943</v>
       </c>
       <c r="H137" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="I137" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="J137" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="M137" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="138" spans="1:13">
       <c r="A138" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B138" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C138" t="s">
         <v>74</v>
       </c>
       <c r="D138">
-        <v>4236</v>
+        <v>4233</v>
       </c>
       <c r="H138" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="I138" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="J138" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="M138" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="139" spans="1:13">
       <c r="A139" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B139" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="C139" t="s">
         <v>106</v>
       </c>
       <c r="D139">
-        <v>4640</v>
+        <v>4638</v>
       </c>
       <c r="H139" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="I139" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="J139" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="M139" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="140" spans="1:13">
       <c r="A140" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B140" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C140" t="s">
         <v>113</v>
       </c>
       <c r="D140">
-        <v>5820</v>
+        <v>5817</v>
       </c>
       <c r="F140" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="G140" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="H140" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="I140" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="J140" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="K140" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="M140" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="141" spans="1:13">
       <c r="A141" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B141" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C141" t="s">
         <v>50</v>
       </c>
       <c r="D141">
-        <v>5385</v>
+        <v>5384</v>
       </c>
       <c r="H141" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="I141" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="J141" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="M141" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="142" spans="1:13">
       <c r="A142" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B142" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C142" t="s">
         <v>56</v>
@@ -8791,491 +8790,491 @@
         <v>5264</v>
       </c>
       <c r="H142" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="I142" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="J142" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="M142" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="143" spans="1:13">
       <c r="A143" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B143" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C143" t="s">
         <v>74</v>
       </c>
       <c r="D143">
-        <v>4318</v>
+        <v>4317</v>
       </c>
       <c r="H143" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="I143" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="J143" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="M143" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="144" spans="1:13">
       <c r="A144" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B144" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C144" t="s">
         <v>106</v>
       </c>
       <c r="D144">
-        <v>4378</v>
+        <v>4377</v>
       </c>
       <c r="H144" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="I144" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="J144" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="M144" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="145" spans="1:13">
       <c r="A145" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B145" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="C145" t="s">
         <v>50</v>
       </c>
       <c r="D145">
-        <v>4340</v>
+        <v>4339</v>
       </c>
       <c r="H145" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="I145" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="J145" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="M145" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="146" spans="1:13">
       <c r="A146" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B146" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C146" t="s">
         <v>74</v>
       </c>
       <c r="D146">
-        <v>4580</v>
+        <v>4579</v>
       </c>
       <c r="H146" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="I146" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="J146" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="M146" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="147" spans="1:13">
       <c r="A147" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B147" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C147" t="s">
         <v>106</v>
       </c>
       <c r="D147">
-        <v>4567</v>
+        <v>4566</v>
       </c>
       <c r="H147" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="I147" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="J147" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="M147" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="148" spans="1:13">
       <c r="A148" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B148" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C148" t="s">
         <v>50</v>
       </c>
       <c r="D148">
-        <v>5636</v>
+        <v>5634</v>
       </c>
       <c r="F148" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="G148" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="H148" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="I148" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="J148" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="K148" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="M148" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="149" spans="1:13">
       <c r="A149" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B149" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="C149" t="s">
         <v>56</v>
       </c>
       <c r="D149">
-        <v>5608</v>
+        <v>5605</v>
       </c>
       <c r="F149" t="s">
         <v>205</v>
       </c>
       <c r="H149" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="I149" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="J149" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="K149" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="M149" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="150" spans="1:13">
       <c r="A150" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B150" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C150" t="s">
         <v>74</v>
       </c>
       <c r="D150">
-        <v>5736</v>
+        <v>5733</v>
       </c>
       <c r="F150" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="H150" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="I150" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="J150" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="K150" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="M150" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="151" spans="1:13">
       <c r="A151" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B151" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="C151" t="s">
         <v>113</v>
       </c>
       <c r="D151">
-        <v>5680</v>
+        <v>5679</v>
       </c>
       <c r="F151" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="G151" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="H151" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="I151" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="J151" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="K151" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="M151" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="152" spans="1:13">
       <c r="A152" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B152" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="C152" t="s">
         <v>15</v>
       </c>
       <c r="D152">
-        <v>4476</v>
+        <v>4474</v>
       </c>
       <c r="H152" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="I152" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="L152" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="M152" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="153" spans="1:13">
       <c r="A153" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B153" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="C153" t="s">
         <v>21</v>
       </c>
       <c r="D153">
-        <v>5076</v>
+        <v>5073</v>
       </c>
       <c r="H153" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="I153" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="L153" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="M153" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="154" spans="1:13">
       <c r="A154" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B154" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="C154" t="s">
         <v>26</v>
       </c>
       <c r="D154">
-        <v>4684</v>
+        <v>4683</v>
       </c>
       <c r="H154" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="I154" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="L154" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="M154" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="155" spans="1:13">
       <c r="A155" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B155" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="C155" t="s">
         <v>29</v>
       </c>
       <c r="D155">
-        <v>4476</v>
+        <v>4473</v>
       </c>
       <c r="H155" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="I155" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="L155" t="s">
         <v>18</v>
       </c>
       <c r="M155" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
     </row>
     <row r="156" spans="1:13">
       <c r="A156" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B156" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="C156" t="s">
         <v>50</v>
       </c>
       <c r="D156">
-        <v>5928</v>
+        <v>5925</v>
       </c>
       <c r="F156" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="H156" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="I156" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="J156" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="M156" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="157" spans="1:13">
       <c r="A157" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B157" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="C157" t="s">
         <v>56</v>
       </c>
       <c r="D157">
-        <v>5356</v>
+        <v>5355</v>
       </c>
       <c r="F157" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="G157" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="H157" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="I157" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="J157" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="K157" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="M157" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
     </row>
     <row r="158" spans="1:13">
       <c r="A158" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B158" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="C158" t="s">
         <v>74</v>
       </c>
       <c r="D158">
-        <v>5348</v>
+        <v>5347</v>
       </c>
       <c r="F158" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="G158" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="H158" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="I158" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="J158" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="K158" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="M158" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="159" spans="1:13">
       <c r="A159" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B159" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C159" t="s">
         <v>106</v>
@@ -9284,33 +9283,33 @@
         <v>5672</v>
       </c>
       <c r="F159" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="G159" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="H159" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="I159" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="J159" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="K159" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="M159" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
     <row r="160" spans="1:13">
       <c r="A160" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B160" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="C160" t="s">
         <v>50</v>
@@ -9319,33 +9318,33 @@
         <v>6040</v>
       </c>
       <c r="F160" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="G160" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="H160" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="I160" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="J160" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="K160" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="M160" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="161" spans="1:13">
       <c r="A161" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B161" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="C161" t="s">
         <v>56</v>
@@ -9354,181 +9353,181 @@
         <v>6344</v>
       </c>
       <c r="F161" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="H161" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="I161" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="J161" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="K161" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M161" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="162" spans="1:13">
       <c r="A162" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B162" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="C162" t="s">
         <v>74</v>
       </c>
       <c r="D162">
-        <v>5280</v>
+        <v>5277</v>
       </c>
       <c r="F162" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="G162" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="H162" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I162" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="J162" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="M162" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
     </row>
     <row r="163" spans="1:13">
       <c r="A163" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B163" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C163" t="s">
         <v>106</v>
       </c>
       <c r="D163">
-        <v>6344</v>
+        <v>6342</v>
       </c>
       <c r="F163" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="G163" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="H163" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="I163" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="J163" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="K163" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="M163" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
     </row>
     <row r="164" spans="1:13">
       <c r="A164" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="B164" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="C164" t="s">
         <v>56</v>
       </c>
       <c r="D164">
-        <v>4667</v>
+        <v>4666</v>
       </c>
       <c r="H164" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="I164" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="J164" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="M164" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
     </row>
     <row r="165" spans="1:13">
       <c r="A165" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="B165" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="C165" t="s">
         <v>74</v>
       </c>
       <c r="D165">
-        <v>4483</v>
+        <v>4482</v>
       </c>
       <c r="H165" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="I165" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="J165" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="M165" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
     </row>
     <row r="166" spans="1:13">
       <c r="A166" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="B166" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="C166" t="s">
         <v>106</v>
       </c>
       <c r="D166">
-        <v>6395</v>
+        <v>6394</v>
       </c>
       <c r="E166" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="F166" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="H166" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="I166" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="J166" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="M166" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
     </row>
     <row r="167" spans="1:13">
       <c r="A167" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B167" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="C167" t="s">
         <v>56</v>
@@ -9537,56 +9536,56 @@
         <v>5596</v>
       </c>
       <c r="F167" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="H167" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="I167" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="J167" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="M167" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
     </row>
     <row r="168" spans="1:13">
       <c r="A168" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B168" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="C168" t="s">
         <v>74</v>
       </c>
       <c r="D168">
-        <v>5720</v>
+        <v>5718</v>
       </c>
       <c r="F168" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="H168" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="I168" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="J168" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="M168" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="169" spans="1:13">
       <c r="A169" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B169" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="C169" t="s">
         <v>106</v>
@@ -9595,954 +9594,954 @@
         <v>5584</v>
       </c>
       <c r="F169" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="H169" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="I169" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="J169" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="M169" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="170" spans="1:13">
       <c r="A170" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B170" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="C170" t="s">
         <v>113</v>
       </c>
       <c r="D170">
-        <v>5792</v>
+        <v>5789</v>
       </c>
       <c r="F170" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="H170" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="I170" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="J170" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="M170" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="171" spans="1:13">
       <c r="A171" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B171" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="C171" t="s">
         <v>56</v>
       </c>
       <c r="D171">
-        <v>5936</v>
+        <v>5934</v>
       </c>
       <c r="F171" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="H171" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="I171" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="J171" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="K171" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="M171" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
     </row>
     <row r="172" spans="1:13">
       <c r="A172" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B172" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="C172" t="s">
         <v>74</v>
       </c>
       <c r="D172">
-        <v>5864</v>
+        <v>5861</v>
       </c>
       <c r="F172" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="H172" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="I172" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="J172" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="K172" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="M172" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
     </row>
     <row r="173" spans="1:13">
       <c r="A173" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B173" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="C173" t="s">
         <v>106</v>
       </c>
       <c r="D173">
-        <v>6200</v>
+        <v>6197</v>
       </c>
       <c r="F173" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="G173" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="H173" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="I173" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="J173" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="K173" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="M173" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="174" spans="1:13">
       <c r="A174" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B174" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C174" t="s">
         <v>113</v>
       </c>
       <c r="D174">
-        <v>5824</v>
+        <v>5821</v>
       </c>
       <c r="F174" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="G174" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="H174" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="I174" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="J174" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="K174" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="M174" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="175" spans="1:13">
       <c r="A175" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B175" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="C175" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="D175">
-        <v>5992</v>
+        <v>5989</v>
       </c>
       <c r="F175" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="G175" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="H175" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="I175" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="J175" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="K175" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="M175" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="176" spans="1:13">
       <c r="A176" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B176" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="C176" t="s">
         <v>50</v>
       </c>
       <c r="D176">
-        <v>5816</v>
+        <v>5815</v>
       </c>
       <c r="F176" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="G176" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="H176" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="I176" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="J176" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="K176" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="M176" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="177" spans="1:13">
       <c r="A177" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B177" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="C177" t="s">
         <v>56</v>
       </c>
       <c r="D177">
-        <v>6483</v>
+        <v>6482</v>
       </c>
       <c r="F177" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="G177" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="H177" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="I177" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="J177" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="K177" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="M177" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="178" spans="1:13">
       <c r="A178" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B178" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="C178" t="s">
         <v>74</v>
       </c>
       <c r="D178">
-        <v>4919</v>
+        <v>4918</v>
       </c>
       <c r="H178" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="I178" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="J178" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="K178" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="M178" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="179" spans="1:13">
       <c r="A179" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B179" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="C179" t="s">
         <v>106</v>
       </c>
       <c r="D179">
-        <v>5906</v>
+        <v>5905</v>
       </c>
       <c r="F179" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="G179" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="H179" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I179" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="J179" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="K179" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="M179" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="180" spans="1:13">
       <c r="A180" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B180" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="C180" t="s">
         <v>50</v>
       </c>
       <c r="D180">
-        <v>5969</v>
+        <v>5968</v>
       </c>
       <c r="F180" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="H180" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="I180" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="J180" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="K180" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="M180" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="181" spans="1:13">
       <c r="A181" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B181" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="C181" t="s">
         <v>74</v>
       </c>
       <c r="D181">
-        <v>7235</v>
+        <v>7234</v>
       </c>
       <c r="F181" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="H181" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="I181" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="J181" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="K181" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="M181" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="182" spans="1:13">
       <c r="A182" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B182" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="C182" t="s">
         <v>106</v>
       </c>
       <c r="D182">
-        <v>5848</v>
+        <v>5847</v>
       </c>
       <c r="F182" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="G182" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="H182" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="I182" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="J182" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="K182" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="M182" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="183" spans="1:13">
       <c r="A183" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="B183" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="C183" t="s">
         <v>56</v>
       </c>
       <c r="D183">
-        <v>5211</v>
+        <v>5238</v>
       </c>
       <c r="F183" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="H183" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="I183" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="J183" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="M183" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="184" spans="1:13">
       <c r="A184" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="B184" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="C184" t="s">
         <v>74</v>
       </c>
       <c r="D184">
-        <v>5239</v>
+        <v>5389</v>
       </c>
       <c r="F184" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="H184" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="I184" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="J184" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="M184" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="185" spans="1:13">
       <c r="A185" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="B185" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="C185" t="s">
         <v>106</v>
       </c>
       <c r="D185">
-        <v>5256</v>
+        <v>5254</v>
       </c>
       <c r="F185" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="H185" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="I185" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="J185" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="M185" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="186" spans="1:13">
       <c r="A186" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="B186" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="C186" t="s">
         <v>56</v>
       </c>
       <c r="D186">
-        <v>5509</v>
+        <v>5508</v>
       </c>
       <c r="F186" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="H186" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="I186" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="J186" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="M186" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="187" spans="1:13">
       <c r="A187" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="B187" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="C187" t="s">
         <v>74</v>
       </c>
       <c r="D187">
-        <v>5546</v>
+        <v>5545</v>
       </c>
       <c r="E187" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="F187" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="H187" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="I187" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="J187" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="M187" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="188" spans="1:13">
       <c r="A188" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="B188" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="C188" t="s">
         <v>106</v>
       </c>
       <c r="D188">
-        <v>5802</v>
+        <v>5801</v>
       </c>
       <c r="E188" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="H188" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I188" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="J188" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="M188" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="189" spans="1:13">
       <c r="A189" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="B189" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="C189" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="D189">
-        <v>4495</v>
+        <v>4494</v>
       </c>
       <c r="E189" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="H189" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="I189" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="M189" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="190" spans="1:13">
       <c r="A190" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="B190" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="C190" t="s">
         <v>21</v>
       </c>
       <c r="D190">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="H190" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="I190" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="L190" t="s">
         <v>18</v>
       </c>
       <c r="M190" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="191" spans="1:13">
       <c r="A191" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="B191" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="C191" t="s">
         <v>15</v>
       </c>
       <c r="D191">
-        <v>3639</v>
+        <v>3638</v>
       </c>
       <c r="H191" t="s">
         <v>57</v>
       </c>
       <c r="I191" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="L191" t="s">
         <v>18</v>
       </c>
       <c r="M191" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="192" spans="1:13">
       <c r="A192" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="B192" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="C192" t="s">
         <v>21</v>
       </c>
       <c r="D192">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="H192" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="I192" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="L192" t="s">
         <v>18</v>
       </c>
       <c r="M192" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="193" spans="1:13">
       <c r="A193" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="B193" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="C193" t="s">
         <v>26</v>
       </c>
       <c r="D193">
-        <v>3784</v>
+        <v>3782</v>
       </c>
       <c r="H193" t="s">
         <v>57</v>
       </c>
       <c r="I193" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="L193" t="s">
         <v>18</v>
       </c>
       <c r="M193" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="194" spans="1:13">
       <c r="A194" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="B194" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="C194" t="s">
         <v>29</v>
       </c>
       <c r="D194">
-        <v>4070</v>
+        <v>4068</v>
       </c>
       <c r="H194" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="I194" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="L194" t="s">
         <v>18</v>
       </c>
       <c r="M194" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="195" spans="1:13">
       <c r="A195" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="B195" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="C195" t="s">
         <v>32</v>
       </c>
       <c r="D195">
-        <v>3745</v>
+        <v>3744</v>
       </c>
       <c r="H195" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="I195" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="L195" t="s">
         <v>18</v>
       </c>
       <c r="M195" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="196" spans="1:13">
       <c r="A196" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="B196" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="C196" t="s">
         <v>50</v>
       </c>
       <c r="D196">
-        <v>5292</v>
+        <v>5289</v>
       </c>
       <c r="F196" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="G196" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="H196" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="I196" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="J196" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="K196" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="M196" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="197" spans="1:13">
       <c r="A197" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="B197" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="C197" t="s">
         <v>56</v>
       </c>
       <c r="D197">
-        <v>5529</v>
+        <v>5528</v>
       </c>
       <c r="F197" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="G197" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="H197" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="I197" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="J197" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="K197" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="M197" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="198" spans="1:13">
       <c r="A198" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="B198" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="C198" t="s">
         <v>74</v>
       </c>
       <c r="D198">
-        <v>5499</v>
+        <v>5498</v>
       </c>
       <c r="F198" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="G198" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="H198" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="I198" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="J198" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="K198" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="M198" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="199" spans="1:13">
       <c r="A199" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="B199" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C199" t="s">
         <v>50</v>
       </c>
       <c r="D199">
-        <v>6656</v>
+        <v>6654</v>
       </c>
       <c r="F199" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="H199" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="I199" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="J199" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="K199" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="M199" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="200" spans="1:13">
       <c r="A200" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="B200" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="C200" t="s">
         <v>56</v>
@@ -10551,27 +10550,27 @@
         <v>5152</v>
       </c>
       <c r="F200" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="H200" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="I200" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="J200" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="M200" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="201" spans="1:13">
       <c r="A201" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="B201" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="C201" t="s">
         <v>74</v>
@@ -10580,56 +10579,56 @@
         <v>4860</v>
       </c>
       <c r="F201" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="H201" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="I201" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="J201" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="M201" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="202" spans="1:13">
       <c r="A202" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="B202" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="C202" t="s">
         <v>106</v>
       </c>
       <c r="D202">
-        <v>5660</v>
+        <v>5657</v>
       </c>
       <c r="F202" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="H202" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="I202" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="J202" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="M202" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="203" spans="1:13">
       <c r="A203" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="B203" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="C203" t="s">
         <v>56</v>
@@ -10638,91 +10637,91 @@
         <v>5920</v>
       </c>
       <c r="F203" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="G203" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="H203" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="I203" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="J203" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="K203" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="M203" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="204" spans="1:13">
       <c r="A204" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="B204" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="C204" t="s">
         <v>74</v>
       </c>
       <c r="D204">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="H204" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="I204" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="J204" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="K204" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="M204" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="205" spans="1:13">
       <c r="A205" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="B205" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="C205" t="s">
         <v>106</v>
       </c>
       <c r="D205">
-        <v>4426</v>
+        <v>4425</v>
       </c>
       <c r="H205" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="I205" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="J205" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="K205" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="M205" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="206" spans="1:13">
       <c r="A206" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="B206" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="C206" t="s">
         <v>113</v>
@@ -10731,126 +10730,126 @@
         <v>5928</v>
       </c>
       <c r="F206" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="H206" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="I206" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="J206" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="K206" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="M206" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="207" spans="1:13">
       <c r="A207" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="B207" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="C207" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="D207">
         <v>5860</v>
       </c>
       <c r="F207" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="H207" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="I207" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="J207" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="K207" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="M207" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="208" spans="1:13">
       <c r="A208" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="B208" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="C208" t="s">
         <v>50</v>
       </c>
       <c r="D208">
-        <v>7332</v>
+        <v>7331</v>
       </c>
       <c r="F208" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="H208" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="I208" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="J208" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="K208" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="M208" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="209" spans="1:13">
       <c r="A209" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="B209" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="C209" t="s">
         <v>56</v>
       </c>
       <c r="D209">
-        <v>7184</v>
+        <v>7183</v>
       </c>
       <c r="F209" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="H209" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="I209" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="J209" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="K209" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="M209" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="210" spans="1:13">
       <c r="A210" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="B210" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="C210" t="s">
         <v>74</v>
@@ -10859,150 +10858,149 @@
         <v>7044</v>
       </c>
       <c r="F210" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="H210" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="I210" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="J210" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="K210" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="M210" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="211" spans="1:13">
       <c r="A211" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="B211" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="C211" t="s">
         <v>113</v>
       </c>
       <c r="D211">
-        <v>6072</v>
+        <v>6071</v>
       </c>
       <c r="F211" t="s">
-        <v>1249</v>
-      </c>
-      <c r="G211"/>
+        <v>1251</v>
+      </c>
       <c r="H211" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="I211" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="J211" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="K211" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="M211" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="212" spans="1:13">
       <c r="A212" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="B212" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="C212" t="s">
         <v>50</v>
       </c>
       <c r="D212">
-        <v>4525</v>
+        <v>4524</v>
       </c>
       <c r="F212" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="H212" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="I212" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="J212" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="M212" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="213" spans="1:13">
       <c r="A213" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="B213" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="C213" t="s">
         <v>56</v>
       </c>
       <c r="D213">
-        <v>4509</v>
+        <v>4508</v>
       </c>
       <c r="F213" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="H213" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="I213" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="J213" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="M213" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="214" spans="1:13">
       <c r="A214" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="B214" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="C214" t="s">
         <v>74</v>
       </c>
       <c r="D214">
-        <v>4430</v>
+        <v>4429</v>
       </c>
       <c r="F214" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="H214" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="I214" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="J214" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="M214" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="215" spans="1:13">
       <c r="A215" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="B215" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="C215" t="s">
         <v>15</v>
@@ -11011,24 +11009,24 @@
         <v>3652</v>
       </c>
       <c r="H215" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="I215" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="L215" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="M215" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="216" spans="1:13">
       <c r="A216" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="B216" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="C216" t="s">
         <v>21</v>
@@ -11037,152 +11035,152 @@
         <v>3376</v>
       </c>
       <c r="H216" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="I216" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="L216" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="M216" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="217" spans="1:13">
       <c r="A217" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="B217" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="C217" t="s">
         <v>26</v>
       </c>
       <c r="D217">
-        <v>3736</v>
+        <v>3735</v>
       </c>
       <c r="H217" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="I217" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="L217" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="M217" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="218" spans="1:13">
       <c r="A218" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="B218" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="C218" t="s">
         <v>50</v>
       </c>
       <c r="D218">
-        <v>7706</v>
+        <v>7705</v>
       </c>
       <c r="F218" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="H218" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="I218" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="J218" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="K218" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="M218" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="219" spans="1:13">
       <c r="A219" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="B219" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="C219" t="s">
         <v>15</v>
       </c>
       <c r="D219">
-        <v>4167</v>
+        <v>4166</v>
       </c>
       <c r="H219" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="I219" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="L219" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="M219" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="220" spans="1:13">
       <c r="A220" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="B220" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="C220" t="s">
         <v>21</v>
       </c>
       <c r="D220">
-        <v>3833</v>
+        <v>3832</v>
       </c>
       <c r="H220" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="I220" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="L220" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="M220" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="221" spans="1:13">
       <c r="A221" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="B221" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="C221" t="s">
         <v>26</v>
       </c>
       <c r="D221">
-        <v>4078</v>
+        <v>4077</v>
       </c>
       <c r="H221" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="I221" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="L221" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="M221" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
     </row>
   </sheetData>
